--- a/Improgress/2. Artifact and Deliverable/Test case/QuanLyCtyBDS_DefectLoModule2_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/QuanLyCtyBDS_DefectLoModule2_ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444C20DB-FF03-4DB1-B211-296C0C1350D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B02252-CD85-4FF3-9D93-20C95FA6DA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>DEFECT LOG</t>
   </si>
@@ -425,6 +425,20 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1 : truy cập vào App Quản Lý Bất động Sản 
+Step2: Đăng nhập với username và password của User
+Step3: truy cập vào giao diện trang chủ 
+Step4 : Nhấn chọn dự án Bất dộng sản 
+Step 5: nhấn chọn 1 dự án 
+Step 6 : nhấn chọn mục thông tin " vị trí " của dự án đó </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giao diện " xem chi tiết  dự án " trên mobile người dùng sau khi nhấn vào mục thông tin vị trí , hệ thống không hiển thị định vị của dự án đó </t>
+  </si>
+  <si>
+    <t>21/5/2020</t>
   </si>
 </sst>
 </file>
@@ -1199,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1720,9 @@
       <c r="E16" s="18">
         <v>1.5</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>100</v>
+      </c>
       <c r="G16" s="30"/>
       <c r="H16" s="31" t="s">
         <v>58</v>
@@ -29342,9 +29358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z963"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29477,7 +29493,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>64</v>
@@ -29514,7 +29530,7 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>64</v>
@@ -29535,7 +29551,9 @@
         <v>43987</v>
       </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
@@ -29547,7 +29565,7 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>64</v>
@@ -29568,7 +29586,9 @@
         <v>43987</v>
       </c>
       <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -29582,7 +29602,7 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>65</v>
@@ -29603,7 +29623,9 @@
         <v>43987</v>
       </c>
       <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -29617,7 +29639,7 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>67</v>
@@ -29650,7 +29672,7 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>69</v>
@@ -29683,7 +29705,7 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>71</v>
@@ -29716,7 +29738,7 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>74</v>
@@ -29751,7 +29773,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>77</v>
@@ -29784,7 +29806,7 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>79</v>
@@ -29819,7 +29841,7 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>81</v>
@@ -29854,13 +29876,13 @@
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="28">
-        <v>44169</v>
+        <v>43987</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>60</v>
@@ -29887,13 +29909,13 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="28">
-        <v>44169</v>
+        <v>43987</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>60</v>
@@ -29920,24 +29942,26 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="28">
-        <v>44169</v>
+        <v>43987</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="28">
+        <v>43987</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
@@ -29974,7 +29998,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -30035,31 +30059,47 @@
       <c r="I20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="28">
+        <v>44017</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -30074,7 +30114,9 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>

--- a/Improgress/2. Artifact and Deliverable/Test case/QuanLyCtyBDS_DefectLoModule2_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/QuanLyCtyBDS_DefectLoModule2_ver1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B02252-CD85-4FF3-9D93-20C95FA6DA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AFE12B-ABCA-4558-A353-679A57986273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
   <si>
     <t>DEFECT LOG</t>
   </si>
@@ -440,6 +440,99 @@
   <si>
     <t>21/5/2020</t>
   </si>
+  <si>
+    <t xml:space="preserve">Step 1 : Người dùng đăng nhập thành công vào App Quản lý công ty BDS 
+Step2: Nhấn vào hình ảnh đại diện được hiển thị 
+Step3: Chọn " đổi mật khẩu " 
+Step4 : Nhập " current password" 
+Step 5: Nhập " New Password"  
+Step 6 : Nhấn " Change Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chức năng " đổi mật khẩu " người dùng nhập mật khẩu hiện tại không đúng nhưng không hiện thông báo và không nhấn được nút " thay đổi mật khầu " </t>
+  </si>
+  <si>
+    <t>chức năng " đổi mật khẩu " người dùng nhập đủ và đúng 2 trường thông tin mật khẩu nhưng không nhấn được nút " đổi mật khẩu"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1 : Người dùng đăng nhập thành công vào App Quản lý công ty BDS 
+Step2: Nhấn vào hình ảnh đại diện được hiển thị 
+Step3: Chọn " đổi mật khẩu " 
+Step4 : Nhập " current password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(nhập sai trường thông tin hiện tại)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 5: Nhập " New Password"  
+Step 6 : Nhấn " Change Password </t>
+    </r>
+  </si>
+  <si>
+    <t>chức năng " đổi mật khẩu " hệ thống không hiện thông báo"  đổi mật khẩu thành công "</t>
+  </si>
+  <si>
+    <t>chức năng " đổi mật khẩu " hệ thống không hiện thông báo" mật khẩu hiện tại không dúng  "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chức năng " đổi mật khẩu " người dùng để trống trường thông tin nhưng không hiển thị thông báo </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1 : Người dùng đăng nhập thành công vào App Quản lý công ty BDS 
+Step2: Nhấn vào hình ảnh đại diện được hiển thị 
+Step3: Chọn " đổi mật khẩu " 
+Step4 : Nhập " current password" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(để trống )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 5: Nhập " New Password"  
+Step 6 : Nhấn " Change Password </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">close  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chức năng " sửa dự án " giao diện " sửa dự án " trường thông tin địa chì không hiển thị thông tin của dự án được sửa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Truy cập đường link 
+Step 2: Đăng nhập với username và password của admin 
+Step 3: Truy cập vào giao diện Trang chủ
+Step 4: Nhấn chọn hệ " Quản lý dự án "
+Step 5 :Nhấn chọn " sửa dự án " 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +542,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;m&quot;-&quot;yy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -537,8 +630,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -897,6 +1002,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29358,9 +29476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29651,80 +29769,82 @@
         <v>60</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="28">
+        <v>43988</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:26" s="56" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="52">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53">
         <v>1</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="55">
         <v>44169</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+    </row>
+    <row r="10" spans="1:26" s="56" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53">
         <v>1</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="55">
         <v>44169</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
     </row>
     <row r="11" spans="1:26" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -29761,38 +29881,38 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:26" s="56" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="52">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53">
         <v>1</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="55">
         <v>44169</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
     </row>
     <row r="13" spans="1:26" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -29864,71 +29984,71 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:26" s="56" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52">
         <v>11</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D15" s="53"/>
+      <c r="E15" s="53">
         <v>2</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="55">
         <v>43987</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="1:26" s="56" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52">
         <v>12</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53">
         <v>2</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="55">
         <v>43987</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
     </row>
     <row r="17" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -29989,82 +30109,84 @@
         <v>60</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="28">
+        <v>43988</v>
+      </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:13" s="56" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52">
         <v>15</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53">
         <v>3</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="55">
         <v>44017</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9" t="s">
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:13" s="56" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="D20" s="53"/>
+      <c r="E20" s="53">
         <v>3</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="55">
         <v>44017</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9" t="s">
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53" t="s">
         <v>94</v>
       </c>
     </row>
@@ -30092,130 +30214,204 @@
         <v>60</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="28">
+        <v>43988</v>
+      </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    <row r="22" spans="1:13" s="56" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="52">
         <v>18</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
+      <c r="C22" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53">
+        <v>4</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="55">
+        <v>43988</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="1:13" s="56" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52">
         <v>19</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="C23" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53">
+        <v>4</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="55">
+        <v>43988</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:13" s="56" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52">
         <v>20</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="C24" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53">
+        <v>4</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="55">
+        <v>43988</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13" s="56" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52">
         <v>21</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="C25" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53">
+        <v>4</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="55">
+        <v>43988</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" spans="1:13" s="56" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52">
         <v>22</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+      <c r="C26" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53">
+        <v>4</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="55">
+        <v>43988</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="1:13" s="56" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="52">
         <v>23</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="C27" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53">
+        <v>4</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="55">
+        <v>43989</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -33347,6 +33543,6 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>